--- a/1.Hardware/ST-Link-V2.1-BOM/ST-Link-V2.1-BOM.xlsx
+++ b/1.Hardware/ST-Link-V2.1-BOM/ST-Link-V2.1-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ST-Link-V2.1\1.Hardware\ST-Link-V2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ST-Link-V2.1\1.Hardware\ST-Link-V2.1-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7D553E-50AD-4A04-8D9F-020896E24DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE0A193-FB8F-4B2D-9590-47E0C3FD3796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{5BDE7202-5C8E-42F8-B3D5-37304D9FF0C4}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{C6A83948-C512-4CB1-99D8-C4589C9840F1}"/>
   </bookViews>
   <sheets>
     <sheet name="ST-Link-V2.1-BOM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>Comment</t>
   </si>
@@ -167,7 +167,7 @@
     <t>LED1, LED5</t>
   </si>
   <si>
-    <t>LED0402_R</t>
+    <t>LED0603_R</t>
   </si>
   <si>
     <t>LED</t>
@@ -176,10 +176,10 @@
     <t>GREEN</t>
   </si>
   <si>
-    <t>LED2, LED3</t>
-  </si>
-  <si>
-    <t>LED0402_G</t>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED0603_G</t>
   </si>
   <si>
     <t>BLUE</t>
@@ -188,7 +188,7 @@
     <t>LED4</t>
   </si>
   <si>
-    <t>LED0402_B</t>
+    <t>LED0603_B</t>
   </si>
   <si>
     <t>S9013</t>
@@ -200,10 +200,10 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>SOT23-3M</t>
-  </si>
-  <si>
-    <t>9013-DIP</t>
+    <t>SOT23-3N</t>
+  </si>
+  <si>
+    <t>9013-SMD</t>
   </si>
   <si>
     <t>10K</t>
@@ -236,13 +236,7 @@
     <t>1K</t>
   </si>
   <si>
-    <t>R6, R7, R18, R19, R20</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>R8</t>
+    <t>R6, R18, R19, R20</t>
   </si>
   <si>
     <t>100K</t>
@@ -288,9 +282,6 @@
   </si>
   <si>
     <t>U2</t>
-  </si>
-  <si>
-    <t>SOT23-3N</t>
   </si>
   <si>
     <t>TYPE-C 2.0 -16P</t>
@@ -716,8 +707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3055C9-8FDE-4E7D-91CF-45E242255BFE}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BCC243-47D2-4E4B-938C-981E88ED8D9A}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +934,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,7 +1054,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,7 +1094,7 @@
         <v>59</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,7 +1114,7 @@
         <v>59</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1143,7 +1134,7 @@
         <v>59</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,36 +1142,36 @@
         <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1188,19 +1179,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1208,41 +1199,21 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="1">
         <v>1</v>
       </c>
     </row>
